--- a/static/templates_base_financiera/5 PRUEBAS SUSTANTIVAS/5 CONSTRUCCIONES EN PROCESO/7 PRUEBA FISICA DE OBRAS.xlsx
+++ b/static/templates_base_financiera/5 PRUEBAS SUSTANTIVAS/5 CONSTRUCCIONES EN PROCESO/7 PRUEBA FISICA DE OBRAS.xlsx
@@ -1,15 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="7" rupBuild="14420"/>
-  <workbookPr/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24334"/>
+  <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Toño\Desktop\AUDITORIA FINANCIERA ENVIAR\5 PRUEBAS SUSTANTIVAS\5 CONSTRUCCIONES EN PROCESO\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="F:\documentos\Area de trabajo\JVSERVER\ClienteAuditaPro1\sistema-audita\static\templates_base_financiera\5 PRUEBAS SUSTANTIVAS\5 CONSTRUCCIONES EN PROCESO\"/>
     </mc:Choice>
   </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{292332D7-9088-48F8-ADB9-60886180ACE6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="25440" windowHeight="15390" firstSheet="1" activeTab="1"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="16440" firstSheet="1" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Acerno_Cache_XXXXX" sheetId="2" state="veryHidden" r:id="rId1"/>
@@ -23,12 +24,6 @@
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
     </ext>
-    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
-      <xcalcf:calcFeatures>
-        <xcalcf:feature name="microsoft.com:RD"/>
-        <xcalcf:feature name="microsoft.com:FV"/>
-      </xcalcf:calcFeatures>
-    </ext>
   </extLst>
 </workbook>
 </file>
@@ -57,12 +52,6 @@
     <t>Puesto:</t>
   </si>
   <si>
-    <t xml:space="preserve">    Auditoria Financiera</t>
-  </si>
-  <si>
-    <t xml:space="preserve">          Entidad XXXXXXX</t>
-  </si>
-  <si>
     <t>Observaciones</t>
   </si>
   <si>
@@ -102,9 +91,6 @@
     <t xml:space="preserve">Ubicación </t>
   </si>
   <si>
-    <t xml:space="preserve">                                                                                                                                                        Del 01 de enero al 31 de diciembre del 2024</t>
-  </si>
-  <si>
     <t>Prueba Física Obras</t>
   </si>
   <si>
@@ -124,13 +110,22 @@
   </si>
   <si>
     <t>E-6</t>
+  </si>
+  <si>
+    <t>Entidad XXXXXXX</t>
+  </si>
+  <si>
+    <t>Auditoria Financiera</t>
+  </si>
+  <si>
+    <t>Del 01 de Enero al 31 de Diciembre de 2024</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="17" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <fonts count="16" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -146,13 +141,6 @@
     </font>
     <font>
       <sz val="10"/>
-      <name val="Times New Roman"/>
-      <family val="1"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="16"/>
-      <color rgb="FFC00000"/>
       <name val="Times New Roman"/>
       <family val="1"/>
     </font>
@@ -516,56 +504,43 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="56">
+  <cellXfs count="52">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment shrinkToFit="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center"/>
-      <protection locked="0"/>
-    </xf>
     <xf numFmtId="15" fontId="2" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="14" fontId="8" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="14" fontId="9" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="15" fontId="2" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="11" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="10" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
@@ -594,10 +569,10 @@
     <xf numFmtId="15" fontId="2" fillId="2" borderId="15" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="15" fontId="13" fillId="2" borderId="16" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="15" fontId="12" fillId="2" borderId="16" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="2" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="11" fillId="2" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
@@ -613,19 +588,19 @@
     <xf numFmtId="0" fontId="1" fillId="2" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="21" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="12" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="15" fontId="13" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -661,7 +636,13 @@
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="2" name="CuadroTexto 1"/>
+        <xdr:cNvPr id="2" name="CuadroTexto 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-000002000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvSpPr txBox="1"/>
       </xdr:nvSpPr>
       <xdr:spPr>
@@ -722,7 +703,13 @@
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="8" name="CuadroTexto 7"/>
+        <xdr:cNvPr id="8" name="CuadroTexto 7">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-000008000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvSpPr txBox="1"/>
       </xdr:nvSpPr>
       <xdr:spPr>
@@ -1067,7 +1054,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
@@ -1082,11 +1069,11 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:H45"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A6" sqref="A6"/>
+      <selection activeCell="F7" sqref="F7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1102,343 +1089,332 @@
   <sheetData>
     <row r="1" spans="1:8" ht="25.5" customHeight="1" x14ac:dyDescent="0.25"/>
     <row r="2" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A2" s="5"/>
+      <c r="A2" s="3"/>
     </row>
     <row r="3" spans="1:8" ht="25.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="D3" s="6" t="s">
+      <c r="C3" s="50" t="s">
+        <v>27</v>
+      </c>
+      <c r="D3" s="50"/>
+      <c r="E3" s="50"/>
+      <c r="F3" s="40"/>
+      <c r="H3" s="49" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="4" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="C4" s="50" t="s">
+        <v>28</v>
+      </c>
+      <c r="D4" s="50"/>
+      <c r="E4" s="50"/>
+    </row>
+    <row r="5" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="C5" s="50" t="s">
+        <v>29</v>
+      </c>
+      <c r="D5" s="50"/>
+      <c r="E5" s="50"/>
+      <c r="F5" s="4"/>
+      <c r="G5" s="43" t="s">
+        <v>0</v>
+      </c>
+      <c r="H5" s="41"/>
+    </row>
+    <row r="6" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="C6" s="51" t="s">
+        <v>20</v>
+      </c>
+      <c r="D6" s="51"/>
+      <c r="E6" s="51"/>
+      <c r="F6" s="4"/>
+      <c r="G6" s="42" t="s">
+        <v>2</v>
+      </c>
+      <c r="H6" s="2"/>
+    </row>
+    <row r="7" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="C7" s="18"/>
+      <c r="D7" s="5"/>
+      <c r="F7" s="4"/>
+      <c r="G7" s="36" t="s">
+        <v>1</v>
+      </c>
+      <c r="H7" s="37"/>
+    </row>
+    <row r="8" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A8" s="7" t="s">
+        <v>21</v>
+      </c>
+      <c r="B8" s="7"/>
+      <c r="C8" s="18"/>
+      <c r="D8" s="5"/>
+      <c r="F8" s="4"/>
+      <c r="G8" s="39" t="s">
+        <v>2</v>
+      </c>
+      <c r="H8" s="38"/>
+    </row>
+    <row r="9" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A9" s="48" t="s">
+        <v>22</v>
+      </c>
+      <c r="B9" s="48"/>
+      <c r="C9" s="18"/>
+      <c r="D9" s="5"/>
+      <c r="F9" s="4"/>
+    </row>
+    <row r="10" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A10" s="47" t="s">
+        <v>24</v>
+      </c>
+      <c r="C10" s="18"/>
+      <c r="D10" s="5"/>
+      <c r="F10" s="4"/>
+    </row>
+    <row r="11" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A11" s="48" t="s">
+        <v>23</v>
+      </c>
+      <c r="C11" s="18"/>
+      <c r="D11" s="5"/>
+      <c r="F11" s="4"/>
+    </row>
+    <row r="12" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A12" s="47" t="s">
+        <v>25</v>
+      </c>
+      <c r="E12" s="6"/>
+      <c r="F12" s="4"/>
+    </row>
+    <row r="13" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="F13" s="5"/>
+    </row>
+    <row r="14" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="F14" s="7"/>
+    </row>
+    <row r="15" spans="1:8" ht="24.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A15" s="20" t="s">
+        <v>11</v>
+      </c>
+      <c r="B15" s="20" t="s">
+        <v>12</v>
+      </c>
+      <c r="C15" s="20" t="s">
+        <v>19</v>
+      </c>
+      <c r="D15" s="20" t="s">
         <v>8</v>
       </c>
-      <c r="F3" s="44"/>
-      <c r="H3" s="55" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="4" spans="1:8" ht="20.25" x14ac:dyDescent="0.3">
-      <c r="D4" s="6" t="s">
+      <c r="E15" s="20" t="s">
+        <v>13</v>
+      </c>
+      <c r="F15" s="20" t="s">
         <v>7</v>
       </c>
-      <c r="F4" s="6"/>
-      <c r="G4" s="2"/>
-      <c r="H4" s="3"/>
-    </row>
-    <row r="5" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="C5" s="20" t="s">
-        <v>22</v>
-      </c>
-      <c r="D5" s="7"/>
-      <c r="F5" s="6"/>
-      <c r="G5" s="47" t="s">
-        <v>0</v>
-      </c>
-      <c r="H5" s="45"/>
-    </row>
-    <row r="6" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="C6" s="20"/>
-      <c r="D6" s="24" t="s">
-        <v>23</v>
-      </c>
-      <c r="F6" s="6"/>
-      <c r="G6" s="46" t="s">
+    </row>
+    <row r="16" spans="1:8" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A16" s="22">
+        <v>1</v>
+      </c>
+      <c r="B16" s="23" t="s">
+        <v>14</v>
+      </c>
+      <c r="C16" s="30"/>
+      <c r="D16" s="24" t="s">
+        <v>9</v>
+      </c>
+      <c r="E16" s="23"/>
+      <c r="F16" s="33"/>
+    </row>
+    <row r="17" spans="1:8" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A17" s="25">
         <v>2</v>
       </c>
-      <c r="H6" s="4"/>
-    </row>
-    <row r="7" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="C7" s="20"/>
-      <c r="D7" s="7"/>
-      <c r="F7" s="6"/>
-      <c r="G7" s="40" t="s">
-        <v>1</v>
-      </c>
-      <c r="H7" s="41"/>
-    </row>
-    <row r="8" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A8" s="9" t="s">
-        <v>24</v>
-      </c>
-      <c r="B8" s="9"/>
-      <c r="C8" s="20"/>
-      <c r="D8" s="7"/>
-      <c r="F8" s="6"/>
-      <c r="G8" s="43" t="s">
-        <v>2</v>
-      </c>
-      <c r="H8" s="42"/>
-    </row>
-    <row r="9" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A9" s="54" t="s">
-        <v>25</v>
-      </c>
-      <c r="B9" s="54"/>
-      <c r="C9" s="20"/>
-      <c r="D9" s="7"/>
-      <c r="F9" s="6"/>
-      <c r="G9" s="51"/>
-      <c r="H9" s="52"/>
-    </row>
-    <row r="10" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A10" s="53" t="s">
-        <v>27</v>
-      </c>
-      <c r="C10" s="20"/>
-      <c r="D10" s="7"/>
-      <c r="F10" s="6"/>
-      <c r="G10" s="51"/>
-      <c r="H10" s="52"/>
-    </row>
-    <row r="11" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A11" s="54" t="s">
-        <v>26</v>
-      </c>
-      <c r="C11" s="20"/>
-      <c r="D11" s="7"/>
-      <c r="F11" s="6"/>
-      <c r="G11" s="51"/>
-      <c r="H11" s="52"/>
-    </row>
-    <row r="12" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A12" s="53" t="s">
-        <v>28</v>
-      </c>
-      <c r="E12" s="8"/>
-      <c r="F12" s="6"/>
-    </row>
-    <row r="13" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="F13" s="7"/>
-      <c r="G13" s="2"/>
-      <c r="H13" s="21"/>
-    </row>
-    <row r="14" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="F14" s="9"/>
-      <c r="G14" s="2"/>
-      <c r="H14" s="21"/>
-    </row>
-    <row r="15" spans="1:8" ht="24.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A15" s="23" t="s">
-        <v>13</v>
-      </c>
-      <c r="B15" s="23" t="s">
-        <v>14</v>
-      </c>
-      <c r="C15" s="23" t="s">
-        <v>21</v>
-      </c>
-      <c r="D15" s="23" t="s">
+      <c r="B17" s="21" t="s">
+        <v>15</v>
+      </c>
+      <c r="C17" s="31"/>
+      <c r="D17" s="26" t="s">
         <v>10</v>
       </c>
-      <c r="E15" s="23" t="s">
-        <v>15</v>
-      </c>
-      <c r="F15" s="23" t="s">
+      <c r="E17" s="21"/>
+      <c r="F17" s="34"/>
+    </row>
+    <row r="18" spans="1:8" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A18" s="25">
+        <v>3</v>
+      </c>
+      <c r="B18" s="21" t="s">
+        <v>16</v>
+      </c>
+      <c r="C18" s="31"/>
+      <c r="D18" s="26" t="s">
         <v>9</v>
       </c>
-      <c r="H15" s="21"/>
-    </row>
-    <row r="16" spans="1:8" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A16" s="26">
-        <v>1</v>
-      </c>
-      <c r="B16" s="27" t="s">
-        <v>16</v>
-      </c>
-      <c r="C16" s="34"/>
-      <c r="D16" s="28" t="s">
-        <v>11</v>
-      </c>
-      <c r="E16" s="27"/>
-      <c r="F16" s="37"/>
-      <c r="H16" s="21"/>
-    </row>
-    <row r="17" spans="1:8" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A17" s="29">
-        <v>2</v>
-      </c>
-      <c r="B17" s="25" t="s">
+      <c r="E18" s="21"/>
+      <c r="F18" s="34"/>
+    </row>
+    <row r="19" spans="1:8" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A19" s="25">
+        <v>4</v>
+      </c>
+      <c r="B19" s="21" t="s">
         <v>17</v>
       </c>
-      <c r="C17" s="35"/>
-      <c r="D17" s="30" t="s">
-        <v>12</v>
-      </c>
-      <c r="E17" s="25"/>
-      <c r="F17" s="38"/>
-      <c r="H17" s="21"/>
-    </row>
-    <row r="18" spans="1:8" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A18" s="29">
+      <c r="C19" s="31"/>
+      <c r="D19" s="26" t="s">
+        <v>10</v>
+      </c>
+      <c r="E19" s="21"/>
+      <c r="F19" s="34"/>
+    </row>
+    <row r="20" spans="1:8" ht="24.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A20" s="27">
+        <v>5</v>
+      </c>
+      <c r="B20" s="28" t="s">
+        <v>18</v>
+      </c>
+      <c r="C20" s="32"/>
+      <c r="D20" s="29" t="s">
+        <v>9</v>
+      </c>
+      <c r="E20" s="28"/>
+      <c r="F20" s="35"/>
+    </row>
+    <row r="21" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="C21" s="32"/>
+      <c r="D21" s="29"/>
+      <c r="E21" s="6"/>
+      <c r="F21" s="7"/>
+    </row>
+    <row r="22" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="E22" s="6"/>
+      <c r="F22" s="7"/>
+    </row>
+    <row r="23" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A23" s="7"/>
+    </row>
+    <row r="24" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A24" s="7" t="s">
         <v>3</v>
       </c>
-      <c r="B18" s="25" t="s">
-        <v>18</v>
-      </c>
-      <c r="C18" s="35"/>
-      <c r="D18" s="30" t="s">
-        <v>11</v>
-      </c>
-      <c r="E18" s="25"/>
-      <c r="F18" s="38"/>
-      <c r="H18" s="21"/>
-    </row>
-    <row r="19" spans="1:8" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A19" s="29">
+    </row>
+    <row r="25" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A25" s="7"/>
+    </row>
+    <row r="26" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A26" s="7"/>
+    </row>
+    <row r="27" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A27" s="7"/>
+    </row>
+    <row r="32" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A32" s="8"/>
+      <c r="B32" s="9"/>
+      <c r="C32" s="9"/>
+      <c r="D32" s="9"/>
+      <c r="E32" s="9"/>
+      <c r="F32" s="9"/>
+      <c r="G32" s="8"/>
+      <c r="H32" s="10"/>
+    </row>
+    <row r="33" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A33" s="8"/>
+      <c r="B33" s="11"/>
+      <c r="C33" s="11"/>
+      <c r="D33" s="11"/>
+      <c r="E33" s="11"/>
+      <c r="F33" s="11"/>
+      <c r="G33" s="8"/>
+      <c r="H33" s="10"/>
+    </row>
+    <row r="34" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A34" s="10"/>
+      <c r="B34" s="12"/>
+      <c r="C34" s="12"/>
+      <c r="D34" s="12"/>
+      <c r="E34" s="12"/>
+      <c r="F34" s="12"/>
+      <c r="G34" s="12"/>
+      <c r="H34" s="12"/>
+    </row>
+    <row r="35" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A35" s="10"/>
+      <c r="B35" s="15" t="s">
         <v>4</v>
       </c>
-      <c r="B19" s="25" t="s">
-        <v>19</v>
-      </c>
-      <c r="C19" s="35"/>
-      <c r="D19" s="30" t="s">
-        <v>12</v>
-      </c>
-      <c r="E19" s="25"/>
-      <c r="F19" s="38"/>
-      <c r="H19" s="21"/>
-    </row>
-    <row r="20" spans="1:8" ht="24.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A20" s="31">
+      <c r="C35" s="44"/>
+      <c r="D35" s="15" t="s">
+        <v>4</v>
+      </c>
+      <c r="E35" s="12"/>
+      <c r="F35" s="12"/>
+      <c r="G35" s="12"/>
+      <c r="H35" s="12"/>
+    </row>
+    <row r="36" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A36" s="10"/>
+      <c r="B36" s="16" t="s">
         <v>5</v>
       </c>
-      <c r="B20" s="32" t="s">
-        <v>20</v>
-      </c>
-      <c r="C20" s="36"/>
-      <c r="D20" s="33" t="s">
-        <v>11</v>
-      </c>
-      <c r="E20" s="32"/>
-      <c r="F20" s="39"/>
-      <c r="H20" s="21"/>
-    </row>
-    <row r="21" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="C21" s="36"/>
-      <c r="D21" s="33"/>
-      <c r="E21" s="8"/>
-      <c r="F21" s="9"/>
-      <c r="G21" s="2"/>
-      <c r="H21" s="21"/>
-    </row>
-    <row r="22" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="E22" s="8"/>
-      <c r="F22" s="9"/>
-      <c r="G22" s="2"/>
-      <c r="H22" s="21"/>
-    </row>
-    <row r="23" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A23" s="9"/>
-    </row>
-    <row r="24" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A24" s="9" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="25" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A25" s="9"/>
-    </row>
-    <row r="26" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A26" s="9"/>
-    </row>
-    <row r="27" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A27" s="9"/>
-    </row>
-    <row r="32" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A32" s="10"/>
-      <c r="B32" s="11"/>
-      <c r="C32" s="11"/>
-      <c r="D32" s="11"/>
-      <c r="E32" s="11"/>
-      <c r="F32" s="11"/>
-      <c r="G32" s="10"/>
-      <c r="H32" s="12"/>
-    </row>
-    <row r="33" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A33" s="10"/>
-      <c r="B33" s="13"/>
-      <c r="C33" s="13"/>
-      <c r="D33" s="13"/>
-      <c r="E33" s="13"/>
-      <c r="F33" s="13"/>
-      <c r="G33" s="10"/>
-      <c r="H33" s="12"/>
-    </row>
-    <row r="34" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A34" s="12"/>
-      <c r="B34" s="14"/>
-      <c r="C34" s="14"/>
-      <c r="D34" s="14"/>
-      <c r="E34" s="14"/>
-      <c r="F34" s="14"/>
-      <c r="G34" s="14"/>
-      <c r="H34" s="14"/>
-    </row>
-    <row r="35" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A35" s="12"/>
-      <c r="B35" s="17" t="s">
-        <v>4</v>
-      </c>
-      <c r="C35" s="48"/>
-      <c r="D35" s="17" t="s">
-        <v>4</v>
-      </c>
-      <c r="E35" s="14"/>
-      <c r="F35" s="14"/>
-      <c r="G35" s="14"/>
-      <c r="H35" s="14"/>
-    </row>
-    <row r="36" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A36" s="12"/>
-      <c r="B36" s="18" t="s">
+      <c r="C36" s="44"/>
+      <c r="D36" s="16" t="s">
         <v>5</v>
       </c>
-      <c r="C36" s="48"/>
-      <c r="D36" s="18" t="s">
-        <v>5</v>
-      </c>
-      <c r="E36" s="49"/>
-      <c r="F36" s="15"/>
-      <c r="G36" s="15"/>
-      <c r="H36" s="15"/>
+      <c r="E36" s="45"/>
+      <c r="F36" s="13"/>
+      <c r="G36" s="13"/>
+      <c r="H36" s="13"/>
     </row>
     <row r="37" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A37" s="12"/>
-      <c r="B37" s="18" t="s">
+      <c r="A37" s="10"/>
+      <c r="B37" s="16" t="s">
         <v>6</v>
       </c>
-      <c r="C37" s="48"/>
-      <c r="D37" s="18" t="s">
+      <c r="C37" s="44"/>
+      <c r="D37" s="16" t="s">
         <v>6</v>
       </c>
-      <c r="E37" s="50"/>
+      <c r="E37" s="46"/>
     </row>
     <row r="38" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A38" s="16"/>
-      <c r="B38" s="15"/>
-      <c r="C38" s="15"/>
+      <c r="A38" s="14"/>
+      <c r="B38" s="13"/>
+      <c r="C38" s="13"/>
     </row>
     <row r="39" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A39" s="15"/>
-      <c r="B39" s="15"/>
-      <c r="C39" s="15"/>
+      <c r="A39" s="13"/>
+      <c r="B39" s="13"/>
+      <c r="C39" s="13"/>
     </row>
     <row r="43" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="E43" s="22"/>
-      <c r="F43" s="10"/>
-      <c r="G43" s="22"/>
-      <c r="H43" s="22"/>
+      <c r="E43" s="19"/>
+      <c r="F43" s="8"/>
+      <c r="G43" s="19"/>
+      <c r="H43" s="19"/>
     </row>
     <row r="44" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="E44" s="22"/>
-      <c r="F44" s="19"/>
-      <c r="G44" s="22"/>
-      <c r="H44" s="22"/>
+      <c r="E44" s="19"/>
+      <c r="F44" s="17"/>
+      <c r="G44" s="19"/>
+      <c r="H44" s="19"/>
     </row>
     <row r="45" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="E45" s="22"/>
-      <c r="F45" s="19"/>
-      <c r="G45" s="22"/>
-      <c r="H45" s="22"/>
+      <c r="E45" s="19"/>
+      <c r="F45" s="17"/>
+      <c r="G45" s="19"/>
+      <c r="H45" s="19"/>
     </row>
   </sheetData>
-  <autoFilter ref="A15:F15"/>
+  <autoFilter ref="A15:F15" xr:uid="{00000000-0009-0000-0000-000001000000}"/>
+  <mergeCells count="4">
+    <mergeCell ref="C3:E3"/>
+    <mergeCell ref="C4:E4"/>
+    <mergeCell ref="C5:E5"/>
+    <mergeCell ref="C6:E6"/>
+  </mergeCells>
   <pageMargins left="0.70866141732283472" right="0.70866141732283472" top="0.74803149606299213" bottom="0.74803149606299213" header="0.31496062992125984" footer="0.31496062992125984"/>
   <pageSetup paperSize="5" scale="70" orientation="landscape" r:id="rId1"/>
   <drawing r:id="rId2"/>
